--- a/guide41_local.xlsx
+++ b/guide41_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E17AF06-BB6C-4491-8479-D1D897C6C9FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD2176F-4A0A-48CC-8D90-08E0EA15BEA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="13080" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="13080" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>header1</t>
   </si>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>動画</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
@@ -150,118 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>画面右上の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>▼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（ユーザメニュー）で［プリファレンス］を選択し、［ローカルアカウント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の管理］をクリックすると、ローカルアカウントの管理画面が表示されます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">初期状態では、自分自身が作成したローカルユーザはいないので上記のように「表示する
-データはありません。」と表示されます。
-また、作成可能な件数も上記のように表示されます。
-また、ここでできる管理作業は、以下の 3 種類です。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;ul&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;li&gt;&lt;b&gt;選択したローカルアカウントを削除：&lt;/b&gt;作成したローカルアカウントを削除すること
-ができます&lt;li&gt;
-&lt;li&gt;&lt;b&gt;ローカルアカウントの作成：&lt;/b&gt;ローカルアカウントを 1 つずつ作成することができま
-す。&lt;li&gt;
-&lt;li&gt;&lt;b&gt;ローカルアカウントの一括作成： &lt;/b&gt;1 度に複数のローカルアカウントを作成すること
-ができます。&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;ul&gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>［ローカルアカウントの作成］をクリックします</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -343,198 +227,125 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広大moodleは架空の学生アカウントを作成してそれをコースに学生として登録し、教師として使っているのとは別のブラウザでログインして試すというのを推奨しています。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stream動画の視聴確認までしたい場合には、Microsoft 365の利用権限も必要です。その場合、ローカルアカウントでは駄目です。「クラスアカウント」をメディアセンターのホームページで作成し、moodleのログイン画面で「クラスアカウントでログイン」とします。クラスアカウントは、作成してすぐにMoodleで利用できず、最大1時間待たないといけないことにご注意ください。</t>
-  </si>
-  <si>
-    <t>ユーザ名：ローカルアカウントのログイン名です。この項目は必須項目です。職員
-番号や学生番号に類似したものを設定することはできません。また既に登録されて
-いる他のアカウントと同じものを設定することもできません。
-利用停止アカウント：このユーザをログインできない状態にする場合にはチェック
-ボックスを Yes にセットします。
-パスワード：ログイン時に使用するパスワードです。この項目は必須項目です。パ
-スワードは 8 文字以上で、少なくとも 1 個の大文字アルファベット、小文字アル
-ファベット、数字、* - # の様な記号を含む必要があります。
-姓：ローカルアカウントの姓です。この項目は必須項目です。
-名：ローカルアカウントの名です。この項目は必須項目です。
-メールアドレス：この項目は必須項目です。
-初期メールアドレス： Microsoft 365 との連携に使われる。メールアドレスです。この項目
-は必須項目です。
-所属組織：所属大学などを入力します。任意の項目です。
-所属：所属部局などを入力します。任意の項目です。
-本名：任意の項目です。
-本名（ヨミガナ）：任意の項目です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「メールアドレス」と「初期メールアドレス」ですが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>通常の広大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アカウントですと</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;ul&gt;
- &lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メールアドレス：普段使っているメールアドレス（任意に変更可能）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/li&gt;
- &lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>初期メールアドレス：アカウント名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>@hiroshima-u.ac.jp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（変更不可）&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>になります。架空の学生アカウントの場合は、適当なアドレス（不達のものでも良い）を設定し、ご自分のアドレスなどは入れない方が良いと思います。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>つぎに、作成したアカウントをコースに登録します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t>以上で準備終了です。作成したアカウントでログインするには、最初のログイン画面で　「ローカルアカウントでログイン」を開いてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ローカルアカウントの一括作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel で、lastname,firstname,email,username,password の 5 つのカラムを持 つ以下のようなデータを作ります</t>
+  </si>
+  <si>
+    <t>［読み込み］ボタンをクリックします</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;li&gt;&lt;b&gt;連携マーク：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「もみじ」と連携している場合に、このマークが表示されます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;li&gt;&lt;b&gt;操作ボタン群：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>編集、学生登録、関連付け、例外、コピー、削除のボタンが用意されます。それぞれの機能については以下で解説します。なお、自身が世話教員や副担当教員であるコースでは、［削除］が利用できません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -542,601 +353,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コースを開き、コース名下の「参加者」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「ユーザを登録する」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「検索」をクリックし、作成したアカウントのメールアドレスや姓名の一部を記入してみる。候補が表示されるので、作成したアカウントをクリックする</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クリックしたユーザが白抜きで表示されたら、ロールが学生になっていることを確認して「ユーザを登録」をクリック</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以上で準備終了です。作成したアカウントでログインするには、最初のログイン画面で　「ローカルアカウントでログイン」を開いてください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h3&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ローカルアカウントの一括作成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Excel で、lastname,firstname,email,username,password の 5 つのカラムを持 つ以下のようなデータを作ります</t>
-  </si>
-  <si>
-    <t>これらのセルを矩形範囲で選択してコピーし、ローカルアカウントの一括作成画面 の［タブ区切りのテキスト］欄にペーストします
-［パスワード変更を強制する］がチェックされていると、これらのアカウントの初
-回ログイン時にパスワードの変更を求められます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>［読み込み］ボタンをクリックします</t>
-  </si>
-  <si>
-    <t>ローカルアカウントの姓名をクリックすると、編集画面（アカウント作成画面と同じもの）が表示され、設定を変更することができます。
-また、ローカルアカウントのチェックボックスをチェックして［選択したローカルアカウントの削除］ボタンをクリックすると、そのがアカウントを削除することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>画面右上の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>▼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（ユーザメニュー）で［プリファレンス］を選択し、［コースの管理］をクリッ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クすると、以下のような画面が表示されます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ここには、あなたが教員ロール（主担当教員、世話教員、副担当教員）で登録されている
-コース、または、あなたが作成したコースが表示されます。
-それぞれのコースについて以下の項目が表示されます。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;ul&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;li&gt;&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>長いコース名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コース名です。クリックするとそのコースを表示します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コース省略名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コース省略名です。&lt;/li&gt;
-&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コース ID ナンバー：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">コース ID ナンバーです。自動作成されたコースの場合は、年度、開講部局コード、時間割コードをもとに生成されますが、それ以外の場合は重複しないランダムな値が設定されます。&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;li&gt;&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コースカテゴリ：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>そのコースを利用する年度、学期などを示します。&lt;/li&gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;li&gt;&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>可視性：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>そのコースが学生に見える状態かどうかを示します。 アイコンクリックすると可視性を反転します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/li&gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;li&gt;&lt;b&gt;ロール：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コースに登録されている場合は、あなたのコース内でのロールが表示されます&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>li&gt;
-&lt;li&gt;&lt;b&gt;学生数：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コースに登録されている学生数が表示されます。クリックするとコースの参加者一覧を見ることができます。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/li&gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;li&gt;&lt;b&gt;連携マーク：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「もみじ」と連携している場合に、このマークが表示されます</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/li&gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;li&gt;&lt;b&gt;操作ボタン群：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>編集、学生登録、関連付け、例外、コピー、削除のボタンが用意されます。それぞれの機能については以下で解説します。なお、自身が世話教員や副担当教員であるコースでは、［削除］が利用できません</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
@@ -1148,53 +364,6 @@
   </si>
   <si>
     <t>&lt;h3&gt;編集&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>コースの一覧で［編集］ボタンをクリックすると、そのコースの設定を編集できます。 
-この機能は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_course/p2.html"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「コースの編集する」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と同じです。</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1389,38 +558,1382 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">教職員は必要に応じて広大 ID 以外にも moodle のアカウントを 10 個まで作成することができます。これをローカルアカウントと呼びます。
+    <t>ローカルアカウントとコースの手動作成</t>
+  </si>
+  <si>
+    <t>広大 moodle には広大 ID とパスワードでログインできるアカウントが自動的に登録されます。また、「もみじ」で開講されている授業科目に対応してコースが自動作成され、授業担当者や履修生がそのコースに登録されます。
+しかし、そのようなコースに履修生以外の学生や教職員を学生として登録したい場合はどうすればいいでしょうか？作成したコースの内容を学生として確認したい場合はどうしたらいいのでしょう？ここではそのような疑問にお答えします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ローカルアカウントの作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/3&gt;</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ローカルアカウントのコース登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/3&gt;</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックしたユーザが白抜きで表示されたら、ロールが学生になっていることを確認して「ユーザを登録」をクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補が表示されるので、作成したアカウントをクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>教職員を学生としてコースへ登録する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/3&gt;</t>
+    </r>
+    <rPh sb="4" eb="7">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広大moodleは架空の学生アカウントを作成し、そのアカウントをコースに学生として登録し、教師として使っているのとは別のブラウザでログインして試すというのを推奨しています。ローカルアカウントを作成してください</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="red"&gt;Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動画の視聴確認までしたい場合には、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microsoft 365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の利用権限も必要です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+その場合、ローカルアカウントでは駄目です
+「クラスアカウント」をメディアセンターのホームページで作成し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>moodle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のログイン画面で「クラスアカウントでログイン」とします
+クラスアカウントは、作成してすぐに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Moodle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で利用できず、最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時間待たないといけないことにご注意ください</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>画面右上の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（ユーザメニュー）で［プリファレンス］を選択し、［ローカルアカウントの管理］をクリックすると、ローカルアカウントの管理画面が表示されます</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ローカルアカウントのログイン名です。この項目は必須項目です
+職員番号や学生番号に類似したものを設定することはできません
+また既に登録されている他のアカウントと同じものを設定することもできません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>利用停止アカウント：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>このユーザをログインできない状態にする場合にはチェックボックスを Yes にセットします</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワード：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ログイン時に使用するパスワードです。この項目は必須項目です。
+パスワードは 8 文字以上で、少なくとも 1 個の大文字アルファベット、小文字アルファベット、数字、* - # の様な記号を含む必要があります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>姓：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ローカルアカウントの姓です。この項目は必須項目です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;li&gt;&lt;b&gt;名：ローカルアカウントの名です。この項目は必須項目です&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;メールアドレス：この項目は必須項目です&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;初期メールアドレス： Microsoft 365 との連携に使われる。メールアドレスです。この項目は必須項目です&lt;/li&gt;
+「メールアドレス」と「初期メールアドレス」ですが通常の広大IDアカウントですと
+&lt;ul&gt;
+ &lt;li&gt;メールアドレス：普段使っているメールアドレス（任意に変更可能）&lt;/li&gt;
+ &lt;li&gt;初期メールアドレス：アカウント名@hiroshima-u.ac.jp（変更不可）&lt;/li&gt;
+&lt;/ul&gt;
+になります。架空の学生アカウントの場合は、適当なアドレス（不達のものでも良い）を設定し、ご自分のアドレスなどは入れない方が良いと思います</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>所属組織：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>所属大学などを入力します。任意の項目です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;li&gt;&lt;b&gt;所属：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>所属部局などを入力します。任意の項目です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;li&gt;&lt;b&gt;本名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>任意の項目です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;li&gt;&lt;b&gt;本名（ヨミガナ）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>任意の項目です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>教職員は必要に応じて広大 ID 以外にも moodle のアカウントを 10 個まで作成することができます。
+これを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ローカルアカウント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">と呼びます。
 ログイン画面の下の方に［ローカルアカウントでログイン］と書かれていることに気づかれた方もおられるのではないでしょうか。
 作成したアカウントは、ここをクリックしてログインします。
 </t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
       <t>ローカルアカウントを作成し、コースに学生として登録することで、コースの動きを学生目線で確認することができます。
 また自動作成されるコースとは別に 100 個までのコースを手動で作成することもできます。
-広大 moodle の画面右上の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>▼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（ユーザメニュー）をクリックして［プリファレンス］を開いてください。
+広大 moodle の画面右上にある</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アイコン横の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メニューをクリックして［プリファレンス］を開いてください。
 ［その他］のセクションに、［ローカルアカウントの管理］と［コース管理］のリンクがあります。
 それぞれのリンク先で、ローカルアカウントとコースを作成・管理することができます。</t>
+    </r>
+    <rPh sb="123" eb="124">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>画面右上の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（ユーザメニュー）で［プリファレンス］を選択し、［ローカルアカウントの管理］をクリックすると、ローカルアカウントの管理画面が表示されます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルアカウントの姓名をクリックすると、編集画面（アカウント作成画面と同じもの）が表示され、設定を変更することができます
+また、ローカルアカウントのチェックボックスをチェックして［選択したローカルアカウントの削除］ボタンをクリックすると、そのがアカウントを削除することができます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらのセルを矩形範囲で選択してコピーし、ローカルアカウントの一括作成画面 の［タブ区切りのテキスト］欄にペーストします
+［パスワード変更を強制する］がチェックされていると、これらのアカウントの初回ログイン時にパスワードの変更を求められます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">初期状態では、自分自身が作成したローカルユーザはいないので上記のように「表示するデータはありません。」と表示されます
+また、作成可能な件数も上記のように表示されます
+また、ここでできる管理作業は、以下の 3 種類です
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;選択したローカルアカウントを削除：&lt;/b&gt;作成したローカルアカウントを削除すること
+ができます&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;ローカルアカウントの作成：&lt;/b&gt;ローカルアカウントを 1 つずつ作成することができま
+す&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;ローカルアカウントの一括作成： &lt;/b&gt;1 度に複数のローカルアカウントを作成すること
+ができます&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ここには、あなたが教員ロール（主担当教員、世話教員、副担当教員）で登録されているコース、または、あなたが作成したコースが表示されます
+それぞれのコースについて以下の項目が表示されます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>長いコース名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コース名です。クリックするとそのコースを表示します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コース省略名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コース省略名です。&lt;/li&gt;
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コース ID ナンバー：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コース ID ナンバーです。自動作成されたコースの場合は、年度、開講部局コード、時間割コードをもとに生成されますが、それ以外の場合は重複しないランダムな値が設定されます。&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コースカテゴリ：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そのコースを利用する年度、学期などを示します。&lt;/li&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>画面右上の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（ユーザメニュー）で［プリファレンス］を選択し、［コースの管理］をクリッ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クすると、以下のような画面が表示されます</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可視性：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そのコースが学生に見える状態かどうかを示します。 アイコンクリックすると可視性を反転します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;li&gt;&lt;b&gt;ロール：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コースに登録されている場合は、あなたのコース内でのロールが表示されます&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>li&gt;
+&lt;li&gt;&lt;b&gt;学生数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コースに登録されている学生数が表示されます。クリックするとコースの参加者一覧を見ることができます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>コースの一覧で［編集］ボタンをクリックすると、そのコースの設定を編集できます。 
+この機能は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_course/p2.html"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「コースの編集する」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と同じです</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>作成したアカウントをコースに登録します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コースを開き、コース名下の「参加者」「ユーザを登録する」「検索」をクリックし、作成したアカウントのメールアドレスや姓名の一部を記入してみる。</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1540,13 +2053,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
@@ -1563,6 +2069,13 @@
       <name val="MS UI Gothic"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1587,7 +2100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1628,14 +2141,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1954,7 +2470,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1968,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1984,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1994,12 +2510,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="148.5">
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2017,10 +2533,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2041,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2057,32 +2573,38 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="18.75">
       <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="81">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="67.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="96.75">
-      <c r="B8" s="4" t="s">
-        <v>72</v>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="81">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="96.75">
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2097,10 +2619,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2121,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2137,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2148,65 +2670,86 @@
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="37.5">
+    <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
+      <c r="B7" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="69.75">
+      <c r="B9" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
+      <c r="B10" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37.5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75">
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75">
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75">
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="229.5">
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="102.75">
-      <c r="B12" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="351">
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
+      <c r="B16" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="41.25">
+      <c r="B17" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="27">
+      <c r="B19" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="27">
+      <c r="B20" s="17" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="97.5">
-      <c r="B14" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27">
-      <c r="B15" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="57">
-      <c r="B16" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2767,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2245,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2261,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75">
@@ -2274,62 +2817,62 @@
     </row>
     <row r="7" spans="1:3" ht="18.75">
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="204">
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="18.75">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="54">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75">
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="18.75">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75">
-      <c r="B14" s="15" t="s">
-        <v>34</v>
+      <c r="B14" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2346,8 +2889,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2368,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2384,58 +2927,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.5">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="147.75">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5">
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="56.25">
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75">
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="69.75">
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="51">
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2490,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2503,35 +3046,35 @@
     </row>
     <row r="7" spans="1:3" ht="54">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75">
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="108">
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="40.5">
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2570,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2586,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2599,58 +3142,58 @@
     </row>
     <row r="7" spans="1:3" ht="18.75">
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="93.75">
-      <c r="B8" s="16" t="s">
-        <v>64</v>
+      <c r="B8" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27">
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27">
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75">
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75">
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75">
       <c r="B16" s="10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="45.75">
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2689,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2705,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2718,36 +3261,36 @@
     </row>
     <row r="7" spans="1:3" ht="18.75">
       <c r="B7" s="10" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="108">
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27">
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="54">
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="67.5">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2802,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2814,26 +3357,26 @@
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="93.75">
-      <c r="B7" s="15" t="s">
-        <v>70</v>
+      <c r="B7" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="75">
-      <c r="B8" s="15" t="s">
-        <v>67</v>
+      <c r="B8" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75">
       <c r="B10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2844,33 +3387,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -3119,10 +3635,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3139,20 +3693,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_local.xlsx
+++ b/guide41_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84EDFE4-B7E4-4943-86B7-DAE7C9ED22BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA348B3-7D20-4A48-B0F9-6CA6C392E627}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>header1</t>
   </si>
@@ -103,13 +103,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プレファレンス］を選択し、［ローカルアカウントの管理］をクリックすると、ローカルアカウントの管理画面が表示されます&lt;br&gt;※初期状態では、自分自身が作成したローカルユーザはいないので「表示するデータはありません。」と表示されます。&lt;br&gt;また、作成可能な件数も上記のように表示されます。&lt;br&gt;また、ここでできる管理作業は、以下の 3 種類です。&lt;br&gt;&lt;br&gt;&lt;h4&gt;選択したローカルアカウントを削除&lt;/h4&gt;：作成したローカルアカウントを削除することができます&lt;h4&gt;ローカルアカウントの作成&lt;/h4&gt;：ローカルアカウントを 1 つずつ作成することができます&lt;h4&gt;ローカルアカウントの一括作成&lt;/h4&gt;：1 度に複数のローカルアカウントを作成することができます</t>
-    <rPh sb="57" eb="59">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プレファレンス］を選択し、［ローカルアカウントの管理］をクリックすると、ローカルアカウントの管理画面が表示されます</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -154,10 +147,6 @@
   </si>
   <si>
     <t>ローカルアカウントのチェックボックスをチェックして［選択したローカルアカウントの削除］ボタンをクリックすると、そのがアカウントを削除することができます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要な項目を入力します&lt;br&gt;&lt;br&gt;・ユーザ名：ローカルアカウントのログイン名です。この項目は必須項目です。職員番号や学生番号に類似したものを設定することはできません。また既に登録されている他のアカウントと同じものを設定することもできません。&lt;br&gt;・利用停止アカウント：このユーザをログインできない状態にする場合にはチェックボックスを Yes にセットします。&lt;br&gt;・パスワード：ログイン時に使用するパスワードです。この項目は必須項目です。パスワードは 8 文字以上で、少なくとも 1 個の大文字アルファベット、小文字アルファベット、数字、* - # の様な記号を含む必要があります。&lt;br&gt;・姓：ローカルアカウントの姓です。この項目は必須項目です。&lt;br&gt;・名：ローカルアカウントの名です。この項目は必須項目です。&lt;br&gt;・メールアドレス：この項目は必須項目です。&lt;br&gt;・初期メールアドレス： Microsoft365 アカウントのメールアドレスです。この項目は必須項目です。&lt;br&gt;・所属組織：所属大学などを入力します。任意の項目です。&lt;br&gt;・所属：所属部局などを入力します。任意の項目です。&lt;br&gt;・本名：任意の項目です。&lt;br&gt;・本名（ヨミガナ）：任意の項目です。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -417,6 +406,21 @@
   </si>
   <si>
     <t>［コース登録の例外を更新する］ボタンをクリックします</t>
+  </si>
+  <si>
+    <t>ローカルアカウントとコースの作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プレファレンス］を選択し、［ローカルアカウントの管理］をクリックすると、ローカルアカウントの管理画面が表示されます&lt;br&gt;※初期状態では、自分自身が作成したローカルユーザはいないので「表示するデータはありません。」と表示されます。&lt;br&gt;また、作成可能な件数も上記のように表示されます。&lt;br&gt;また、ここでできる管理作業は、以下の 3 種類です。&lt;br&gt;&lt;br&gt;&lt;h4&gt;選択したローカルアカウントを削除&lt;/h4&gt;作成したローカルアカウントを削除することができます&lt;h4&gt;ローカルアカウントの作成&lt;/h4&gt;ローカルアカウントを1つずつ作成することができます&lt;h4&gt;ローカルアカウントの一括作成&lt;/h4&gt;1度に複数のローカルアカウントを作成することができます</t>
+    <rPh sb="57" eb="59">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要な項目を入力します&lt;br&gt;&lt;br&gt;&lt;h4&gt;ユーザ名&lt;/h4&gt;ローカルアカウントのログイン名です。この項目は必須項目です。職員番号や学生番号に類似したものを設定することはできません。また既に登録されている他のアカウントと同じものを設定することもできません。&lt;br&gt;&lt;h4&gt;利用停止アカウント&lt;/h4&gt;このユーザをログインできない状態にする場合にはチェックボックスを Yes にセットします。&lt;br&gt;・パスワード：ログイン時に使用するパスワードです。この項目は必須項目です。パスワードは 8 文字以上で、少なくとも 1 個の大文字アルファベット、小文字アルファベット、数字、* - # の様な記号を含む必要があります。&lt;br&gt;&lt;h4&gt;姓&lt;/h4&gt;ローカルアカウントの姓です。この項目は必須項目です。&lt;br&gt;&lt;h4&gt;名&lt;/h4&gt;ローカルアカウントの名です。この項目は必須項目です。&lt;br&gt;&lt;h4&gt;メールアドレス&lt;/h4&gt;この項目は必須項目です。&lt;br&gt;&lt;h4&gt;初期メールアドレス&lt;/h4&gt;Microsoft365 アカウントのメールアドレスです。この項目は必須項目です。&lt;br&gt;&lt;h4&gt;所属組織&lt;/h4&gt;所属大学などを入力します。任意の項目です。&lt;br&gt;&lt;h4&gt;所属&lt;/h4&gt;所属部局などを入力します。任意の項目です。&lt;br&gt;&lt;h4&gt;本名&lt;/h4&gt;任意の項目です。&lt;br&gt;&lt;h4&gt;本名（ヨミガナ）&lt;/h4&gt;任意の項目です。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -876,9 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -889,6 +891,9 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -937,7 +942,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -987,7 +992,7 @@
     <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1055,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1116,7 +1121,7 @@
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -1128,31 +1133,31 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -1166,7 +1171,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -1174,25 +1179,25 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -1204,43 +1209,43 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1296,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1326,13 +1331,13 @@
     <row r="7" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1415,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1445,37 +1450,37 @@
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1545,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1571,25 +1576,25 @@
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1597,19 +1602,19 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1671,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1701,19 +1706,19 @@
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1791,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1817,25 +1822,25 @@
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1843,7 +1848,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1851,7 +1856,7 @@
     <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1898,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA1709A-5D42-42BA-90F7-69C031F6F1B7}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1919,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1945,25 +1950,25 @@
     <row r="6" spans="1:4" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1971,7 +1976,7 @@
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1983,25 +1988,25 @@
     <row r="11" spans="1:4" ht="93.75" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -2032,12 +2037,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2290,27 +2304,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2335,12 +2343,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_local.xlsx
+++ b/guide41_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA348B3-7D20-4A48-B0F9-6CA6C392E627}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09013F4-BB39-42CE-8BAF-B901501F4EC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -176,10 +176,6 @@
   </si>
   <si>
     <t>local2_3.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プレファレンス］を選択し、［コースの管理］をクリックすると、コースの管理画面が表示されます&lt;br&gt;&lt;br&gt;ここには、あなたが教員ロール（主担当教員、世話教員、副担当教員）で登録されているコース、または、あなたが作成したコースが表示されます。&lt;br&gt;それぞれのコースについて以下の項目が表示されます。&lt;br&gt;長いコース名：コース名です。クリックするとそのコースを表示します。&lt;br&gt;コース省略名：コース省略名です。&lt;br&gt;コース ID ナンバー：コース ID ナンバーです。自動作成されたコースの場合は、年度、開講部局コード、時間割コードをもとに生成されますが、それ以外の場合は重複しないランダムな値が設定されます。&lt;br&gt;コースカテゴリ：そのコースを利用する年度、学期などを示します。&lt;br&gt;可視性：そのコースが学生に見える状態かどうかを示します。 は見える状態を、は見えない状態を示し、クリックすると可視性を反転します。&lt;br&gt;ロール：コースに登録されている場合は、あなたのコース内でのロールが表示されます。&lt;br&gt;学生数：コースに登録されている学生数が表示されます。クリックするとコースの参加者一覧を見ることができます。&lt;br&gt;連携マーク：「もみじ」と連携している場合に、このマークが表示されます。&lt;br&gt;操作ボタン群：編集、学生登録、関連付け、例外、コピー、削除のボタンが用意されます。それぞれの機能については以下で解説します。なお、自身が世話教員や副担当教員であるコースでは、［削除］が利用できません。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -420,6 +416,10 @@
   </si>
   <si>
     <t>必要な項目を入力します&lt;br&gt;&lt;br&gt;&lt;h4&gt;ユーザ名&lt;/h4&gt;ローカルアカウントのログイン名です。この項目は必須項目です。職員番号や学生番号に類似したものを設定することはできません。また既に登録されている他のアカウントと同じものを設定することもできません。&lt;br&gt;&lt;h4&gt;利用停止アカウント&lt;/h4&gt;このユーザをログインできない状態にする場合にはチェックボックスを Yes にセットします。&lt;br&gt;・パスワード：ログイン時に使用するパスワードです。この項目は必須項目です。パスワードは 8 文字以上で、少なくとも 1 個の大文字アルファベット、小文字アルファベット、数字、* - # の様な記号を含む必要があります。&lt;br&gt;&lt;h4&gt;姓&lt;/h4&gt;ローカルアカウントの姓です。この項目は必須項目です。&lt;br&gt;&lt;h4&gt;名&lt;/h4&gt;ローカルアカウントの名です。この項目は必須項目です。&lt;br&gt;&lt;h4&gt;メールアドレス&lt;/h4&gt;この項目は必須項目です。&lt;br&gt;&lt;h4&gt;初期メールアドレス&lt;/h4&gt;Microsoft365 アカウントのメールアドレスです。この項目は必須項目です。&lt;br&gt;&lt;h4&gt;所属組織&lt;/h4&gt;所属大学などを入力します。任意の項目です。&lt;br&gt;&lt;h4&gt;所属&lt;/h4&gt;所属部局などを入力します。任意の項目です。&lt;br&gt;&lt;h4&gt;本名&lt;/h4&gt;任意の項目です。&lt;br&gt;&lt;h4&gt;本名（ヨミガナ）&lt;/h4&gt;任意の項目です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プレファレンス］を選択し、［コースの管理］をクリックすると、コースの管理画面が表示されます&lt;br&gt;&lt;br&gt;ここには、あなたが教員ロール（主担当教員、世話教員、副担当教員）で登録されているコース、または、あなたが作成したコースが表示されます。&lt;br&gt;それぞれのコースについて以下の項目が表示されます。&lt;br&gt;&lt;h4&gt;長いコース名&lt;/h4&gt;コース名です。クリックするとそのコースを表示します。&lt;br&gt;&lt;h4&gt;コース省略名&lt;/h4&gt;コース省略名です。&lt;br&gt;&lt;h4&gt;コース ID ナンバー&lt;/h4&gt;コース ID ナンバーです。自動作成されたコースの場合は、年度、開講部局コード、時間割コードをもとに生成されますが、それ以外の場合は重複しないランダムな値が設定されます。&lt;br&gt;&lt;h4&gt;コースカテゴリ&lt;/h4&gt;そのコースを利用する年度、学期などを示します。&lt;br&gt;&lt;h4&gt;可視性&lt;/h4&gt;そのコースが学生に見える状態かどうかを示します。 は見える状態を、は見えない状態を示し、クリックすると可視性を反転します。&lt;br&gt;&lt;h4&gt;ロール&lt;/h4&gt;コースに登録されている場合は、あなたのコース内でのロールが表示されます。&lt;br&gt;&lt;h4&gt;学生数&lt;/h4&gt;コースに登録されている学生数が表示されます。クリックするとコースの参加者一覧を見ることができます。&lt;br&gt;&lt;h4&gt;連携マーク&lt;/h4&gt;「もみじ」と連携している場合に、このマークが表示されます。&lt;br&gt;&lt;h4&gt;操作ボタン群&lt;/h4&gt;編集、学生登録、関連付け、例外、コピー、削除のボタンが用意されます。それぞれの機能については以下で解説します。なお、自身が世話教員や副担当教員であるコースでは、［削除］が利用できません。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -992,7 +992,7 @@
     <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1145,7 +1145,7 @@
     <row r="10" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -1280,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D98369-7BE8-489B-812A-077BC57138AA}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1328,16 +1328,16 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1450,37 +1450,37 @@
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1576,25 +1576,25 @@
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1602,19 +1602,19 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1706,19 +1706,19 @@
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1822,25 +1822,25 @@
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1848,7 +1848,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1856,7 +1856,7 @@
     <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1950,25 +1950,25 @@
     <row r="6" spans="1:4" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1976,7 +1976,7 @@
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1988,25 +1988,25 @@
     <row r="11" spans="1:4" ht="93.75" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -2037,21 +2037,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2304,21 +2295,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2343,9 +2340,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_local.xlsx
+++ b/guide41_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09013F4-BB39-42CE-8BAF-B901501F4EC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4C107-0820-45FE-BD67-EAD1EAECFEBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
   <si>
     <t>header1</t>
   </si>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>local4_2.png</t>
-  </si>
-  <si>
-    <t>登録する学生情報を入力します&lt;br&gt;ここでは 3 種類の方法で学生情報を入力することができます。それぞれの方法と登録時の設定項目を説明します。&lt;br&gt;担当講義：あなたが担当する授業の履修生を登録したい場合は、ここでその授業を選択します。&lt;br&gt;ログイン ID：1 行に 1 人ずつ学生番号または職員番号を入力します。&lt;br&gt;CSV ファイル：1 行に 1 人ずつ学生番号または職員番号を並べた CSV ファイルをアップロードします。&lt;br&gt;上記のいずれにも含まれないユーザは削除する：この項目をチェックすると、当該コースにすでに登録されている学生のうち、今回の入力情報（担当講義・ログインID・CSV ファイル）に含まれないユーザは削除対象になります。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>［データ確認に進む］ボタンをクリックします</t>
@@ -303,11 +299,6 @@
   <si>
     <t>長いコース名とコース省略名を入力して、コースカテゴリでコースの開講時期を選びます
 省略名は他のコースと重複しないようにしてください</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ここでコピーしたコースは、あなたの作成コースとして数えられます
-コース作成上限を超えるようなコースのコピーはできません</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -357,12 +348,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「もみじ」の授業と広大 moodle の間の関連付けを、もみじリンクと呼びます。授業とmoodle コースにもみじリンクを設定すると、その授業の講義情報のページに moodleコースへのリンクテキストが作成されます。またもみじリンクの設定内容によっては、「もみじ」でその授業の担当教員や履修生の情報が更新された場合、その内容がコースに
-も反映されます。
-自動作成されたコースは、作成時に街灯の授業との間にもみじリンクが作成されています。コースの一覧で［関連付け］ボタンをクリックすると、コースが授業に紐づけられているかどうかを確認することができます。の紐づけの有無によって表示が異なります。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;授業と紐づいていないコース&lt;/h4&gt;どの授業のチェックボックスにもチェックが入っていません</t>
     <rPh sb="4" eb="6">
       <t>ジュギョウ</t>
@@ -387,13 +372,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;例外&lt;/h3&gt;前項にも記載したように、コースと授業が紐づいている場合、「もみじ」でその授業の担当教員や履修生の情報が更新されると、その内容がコースにも自動的に反映されます。そのようなコースでは、任意のユーザを「14.2.2 学生登録」の機能でコースから登録解除することはできても、「もみじ」で履修情報の更新があった場合に、それを引き金にして、登録解除したユーザがコースに再登録されてしまいます。この機能は、任意のユーザを恒久的にコースに参加できないような、登録連携の例外を設定をするものです。</t>
-    <rPh sb="4" eb="6">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コース一覧で［例外］ボタンをクリックします&lt;br&gt;コースに紐づく授業の担当教員と履修生が一覧表示されます&lt;br&gt;すでに例外対象になっている場合には、登録の例外のカラムに「設定済み」を表示されます&lt;br&gt;もみじリンクの設定されていないコースの場合、この表にはなにも表示されません</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -419,8 +397,52 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プレファレンス］を選択し、［コースの管理］をクリックすると、コースの管理画面が表示されます&lt;br&gt;&lt;br&gt;ここには、あなたが教員ロール（主担当教員、世話教員、副担当教員）で登録されているコース、または、あなたが作成したコースが表示されます。&lt;br&gt;それぞれのコースについて以下の項目が表示されます。&lt;br&gt;&lt;h4&gt;長いコース名&lt;/h4&gt;コース名です。クリックするとそのコースを表示します。&lt;br&gt;&lt;h4&gt;コース省略名&lt;/h4&gt;コース省略名です。&lt;br&gt;&lt;h4&gt;コース ID ナンバー&lt;/h4&gt;コース ID ナンバーです。自動作成されたコースの場合は、年度、開講部局コード、時間割コードをもとに生成されますが、それ以外の場合は重複しないランダムな値が設定されます。&lt;br&gt;&lt;h4&gt;コースカテゴリ&lt;/h4&gt;そのコースを利用する年度、学期などを示します。&lt;br&gt;&lt;h4&gt;可視性&lt;/h4&gt;そのコースが学生に見える状態かどうかを示します。 は見える状態を、は見えない状態を示し、クリックすると可視性を反転します。&lt;br&gt;&lt;h4&gt;ロール&lt;/h4&gt;コースに登録されている場合は、あなたのコース内でのロールが表示されます。&lt;br&gt;&lt;h4&gt;学生数&lt;/h4&gt;コースに登録されている学生数が表示されます。クリックするとコースの参加者一覧を見ることができます。&lt;br&gt;&lt;h4&gt;連携マーク&lt;/h4&gt;「もみじ」と連携している場合に、このマークが表示されます。&lt;br&gt;&lt;h4&gt;操作ボタン群&lt;/h4&gt;編集、学生登録、関連付け、例外、コピー、削除のボタンが用意されます。それぞれの機能については以下で解説します。なお、自身が世話教員や副担当教員であるコースでは、［削除］が利用できません。</t>
-    <phoneticPr fontId="2"/>
+    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プレファレンス］を選択し、［コースの管理］をクリックすると、コースの管理画面が表示されます&lt;br&gt;&lt;br&gt;ここには、あなたが教員ロール（主担当教員、世話教員、副担当教員）で登録されているコース、または、あなたが作成したコースが表示されます&lt;br&gt;それぞれのコースについて以下の項目が表示されます&lt;br&gt;&lt;h4&gt;長いコース名&lt;/h4&gt;コース名です。クリックするとそのコースを表示します。&lt;br&gt;&lt;h4&gt;コース省略名&lt;/h4&gt;コース省略名です。&lt;br&gt;&lt;h4&gt;コース ID ナンバー&lt;/h4&gt;コース ID ナンバーです。自動作成されたコースの場合は、年度、開講部局コード、時間割コードをもとに生成されますが、それ以外の場合は重複しないランダムな値が設定されます。&lt;br&gt;&lt;h4&gt;コースカテゴリ&lt;/h4&gt;そのコースを利用する年度、学期などを示します。&lt;br&gt;&lt;h4&gt;可視性&lt;/h4&gt;そのコースが学生に見える状態かどうかを示します。 は見える状態を、は見えない状態を示し、クリックすると可視性を反転します。&lt;br&gt;&lt;h4&gt;ロール&lt;/h4&gt;コースに登録されている場合は、あなたのコース内でのロールが表示されます。&lt;br&gt;&lt;h4&gt;学生数&lt;/h4&gt;コースに登録されている学生数が表示されます。クリックするとコースの参加者一覧を見ることができます。&lt;br&gt;&lt;h4&gt;連携マーク&lt;/h4&gt;「もみじ」と連携している場合に、このマークが表示されます。&lt;br&gt;&lt;h4&gt;操作ボタン群&lt;/h4&gt;編集、学生登録、関連付け、例外、コピー、削除のボタンが用意されます。それぞれの機能については以下で解説します。なお、自身が世話教員や副担当教員であるコースでは、［削除］が利用できません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【注意】ここでコピーしたコースは、あなたの作成コースとして数えられます
+コース作成上限を超えるようなコースのコピーはできません</t>
+    <rPh sb="1" eb="3">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録する学生情報を入力します&lt;br&gt;&lt;br&gt;ここでは 3 種類の方法で学生情報を入力することができます&lt;br&gt;それぞれの方法と登録時の設定項目を説明します&lt;br&gt;&lt;h4&gt;担当講義&lt;/h4&gt;あなたが担当する授業の履修生を登録したい場合は、ここでその授業を選択します&lt;br&gt;&lt;h4&gt;ログイン ID&lt;/h4&gt;1 行に 1 人ずつ学生番号または職員番号を入力します。&lt;br&gt;&lt;h4&gt;CSV ファイル&lt;/h4&gt;1行に 1人ずつ学生番号または職員番号を並べた CSV ファイルをアップロードします。&lt;br&gt;&lt;h4&gt;上記のいずれにも含まれないユーザは削除する&lt;/h4&gt;この項目をチェックすると、当該コースにすでに登録されている学生のうち、今回の入力情報（担当講義・ログインID・CSV ファイル）に含まれないユーザは削除対象になります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「もみじ」の授業と広大 moodle の間の関連付けを、もみじリンクと呼びます。授業とmoodle コースにもみじリンクを設定すると、その授業の講義情報のページに moodleコースへのリンクテキストが作成されます。またもみじリンクの設定内容によっては、「もみじ」でその授業の担当教員や履修生の情報が更新された場合、その内容がコースにも反映されます。
+自動作成されたコースは、作成時に街灯の授業との間にもみじリンクが作成されています。コースの一覧で［関連付け］ボタンをクリックすると、コースが授業に紐づけられているかどうかを確認することができます。の紐づけの有無によって表示が異なります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;例外&lt;/h3&gt;前項にも記載したように、コースと授業が紐づいている場合、もみじでその授業の担当教員や履修生の情報が更新されると、その内容がコースにも自動的に反映されます。そのようなコースでは、任意のユーザを「学生登録」の機能でコースから登録解除することはできても、もみじで履修情報の更新があった場合に、それを引き金にして、登録解除したユーザがコースに再登録されてしまいます。この機能は、任意のユーザを恒久的にコースに参加できないような、登録連携の例外を設定をするものです。&lt;br&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>local8_2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>local8_3.png</t>
+  </si>
+  <si>
+    <t>local8_4.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>local8_5.png</t>
+  </si>
+  <si>
+    <t>local8_6.png</t>
+  </si>
+  <si>
+    <t>local8_7.png</t>
   </si>
 </sst>
 </file>
@@ -893,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -992,7 +1014,7 @@
     <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1061,7 +1083,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1145,7 +1167,7 @@
     <row r="10" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -1280,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D98369-7BE8-489B-812A-077BC57138AA}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1301,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1331,7 +1353,7 @@
     <row r="7" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1450,7 +1472,7 @@
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1462,7 +1484,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -1474,13 +1496,13 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1530,7 +1552,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1550,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1576,13 +1598,13 @@
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1594,7 +1616,7 @@
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1602,19 +1624,19 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1676,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1706,7 +1728,7 @@
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1718,7 +1740,7 @@
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1775,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBBF58-E26D-413D-9523-B65F6EE200B5}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1796,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1837,10 +1859,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1848,7 +1870,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1856,7 +1878,7 @@
     <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1903,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA1709A-5D42-42BA-90F7-69C031F6F1B7}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1924,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1950,13 +1972,13 @@
     <row r="6" spans="1:4" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1968,18 +1990,26 @@
     <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -1988,25 +2018,49 @@
     <row r="11" spans="1:4" ht="93.75" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -2033,16 +2087,26 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2295,27 +2359,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2340,12 +2398,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>